--- a/medicine/Handicap/Michael_Wehmeyer/Michael_Wehmeyer.xlsx
+++ b/medicine/Handicap/Michael_Wehmeyer/Michael_Wehmeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Lee Wehmeyer (prononcé en anglais : /maɪkəl liː weɪmaɪər/), né le 9 octobre 1957[1], est un éminent professeur d'éducation spécialisée à l'université du Kansas[2]. Ses travaux de recherche portent sur l'auto-détermination, l'application de la psychologie positive et l'approche axée sur les forces du handicap, l'éducation des élèves ayant un handicap mental, et l'accès à l'ensemble des programmes pour ces étudiants[2]. Il est directeur et chercheur principal au Kansas University Beach Center sur le handicap[3], et co-directeur de la Kansas University Center sur le handicap mental[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Lee Wehmeyer (prononcé en anglais : /maɪkəl liː weɪmaɪər/), né le 9 octobre 1957, est un éminent professeur d'éducation spécialisée à l'université du Kansas. Ses travaux de recherche portent sur l'auto-détermination, l'application de la psychologie positive et l'approche axée sur les forces du handicap, l'éducation des élèves ayant un handicap mental, et l'accès à l'ensemble des programmes pour ces étudiants. Il est directeur et chercheur principal au Kansas University Beach Center sur le handicap, et co-directeur de la Kansas University Center sur le handicap mental.
 </t>
         </is>
       </c>
